--- a/Trab1/grafico.xlsx
+++ b/Trab1/grafico.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SistemasDistribuidos\Trab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{52243F38-2CAF-4D46-B36B-626915709A37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B6873-B3C2-4E38-87F2-C9A58C1A461A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_home_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">output_home_1!$G$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">output_home_1!$G$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">output_home_1!$G$8:$M$8</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Server2</t>
   </si>
@@ -30,11 +43,20 @@
   <si>
     <t>outlier bizarro</t>
   </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Num medições</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,7 +690,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -753,7 +787,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -800,6 +846,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="517479120"/>
         <c:axId val="517479448"/>
@@ -1887,16 +1934,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P29" sqref="P28:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1926,7 +1975,7 @@
       <c r="B2">
         <v>1.953125E-3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="Q2">
@@ -1943,6 +1992,9 @@
       <c r="B3">
         <v>1.8670558929442999E-3</v>
       </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
@@ -1978,6 +2030,9 @@
       <c r="B4">
         <v>1.8770694732666E-3</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
       <c r="G4">
         <f>AVERAGEIF($A:$A,G$3,$B:$B)</f>
         <v>1.9189357757568501E-3</v>
@@ -2020,6 +2075,37 @@
       <c r="B5">
         <v>1.9989013671875E-3</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF($A:$A,G$3)</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:M5" si="1">COUNTIF($A:$A,H$3)</f>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="Q5">
         <v>1</v>
       </c>
@@ -2034,7 +2120,7 @@
       <c r="B6">
         <v>1.9550323486327999E-3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="Q6">
@@ -2051,6 +2137,9 @@
       <c r="B7">
         <v>1.8701553344727001E-3</v>
       </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -2086,32 +2175,35 @@
       <c r="B8">
         <v>1.8410682678223001E-3</v>
       </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
       <c r="G8">
         <f>AVERAGEIF($Q:$Q,G$7,$R:$R)</f>
         <v>1.9297599792480499E-3</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:M8" si="1">AVERAGEIF($Q:$Q,H$7,$R:$R)</f>
+        <f t="shared" ref="H8:M8" si="2">AVERAGEIF($Q:$Q,H$7,$R:$R)</f>
         <v>3.8110733032226604E-3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5245103836059601E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8514819145202895E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88143661022186404</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.62161092758179</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6999025344848704</v>
       </c>
       <c r="Q8">
@@ -2127,6 +2219,37 @@
       </c>
       <c r="B9">
         <v>1.8401145935058999E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF($Q:$Q,G$7)</f>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:M9" si="3">COUNTIF($Q:$Q,H$7)</f>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>1</v>
